--- a/DevicesConfiguration.xlsx
+++ b/DevicesConfiguration.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="429">
   <si>
     <t>Actions On Page</t>
   </si>
@@ -5905,7 +5905,7 @@
         <v>153</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>154</v>
@@ -6007,7 +6007,7 @@
         <v>153</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>166</v>
